--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922673.928300585</v>
+        <v>1918369.176061773</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>28.33592091243878</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>57.08569488870582</v>
       </c>
       <c r="G2" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -709,7 +709,7 @@
         <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>37.41955400821273</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>127.2378420788164</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8423426728777</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>68.20151819302265</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.6295126489166</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>97.69299085153396</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>53.19825857387339</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>41.9330141472613</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.08558177517698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>164.310106280536</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>353.008394921249</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>121.5444160197711</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787296</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -1192,13 +1192,13 @@
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719218</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155196</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>26.34941963946682</v>
+        <v>136.4862358187233</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>171.3747482010163</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305868</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>281.6684470328485</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6760079449749</v>
       </c>
       <c r="T13" t="n">
-        <v>137.7722340923497</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892391</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.89407438975464</v>
+        <v>31.26260713376664</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>51.36569740310337</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="V25" t="n">
-        <v>71.60395572454081</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>99.98993057842257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>27.02919805176109</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>31.66396365647125</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>199.0770731562677</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738.6222485201479</v>
+        <v>388.822854220781</v>
       </c>
       <c r="C2" t="n">
-        <v>710.0001061843511</v>
+        <v>388.822854220781</v>
       </c>
       <c r="D2" t="n">
-        <v>710.0001061843511</v>
+        <v>388.822854220781</v>
       </c>
       <c r="E2" t="n">
-        <v>710.0001061843511</v>
+        <v>388.822854220781</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678661</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4330,19 +4330,19 @@
         <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985589</v>
@@ -4357,25 +4357,25 @@
         <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.6222485201479</v>
+        <v>578.242639237266</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>154.6599372348737</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330561</v>
@@ -4412,16 +4412,16 @@
         <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476354</v>
@@ -4436,25 +4436,25 @@
         <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389251</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389251</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="U3" t="n">
-        <v>443.1131440320398</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="V3" t="n">
-        <v>253.6933590155548</v>
+        <v>533.4995072678437</v>
       </c>
       <c r="W3" t="n">
-        <v>253.6933590155548</v>
+        <v>344.0797222513587</v>
       </c>
       <c r="X3" t="n">
-        <v>253.6933590155548</v>
+        <v>344.0797222513587</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>154.6599372348737</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="C4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="D4" t="n">
-        <v>612.5413134665699</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="E4" t="n">
-        <v>612.5413134665699</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686596</v>
+        <v>207.3613333452702</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315746</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330561</v>
@@ -4494,10 +4494,10 @@
         <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349387</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295956</v>
+        <v>373.5399563830977</v>
       </c>
       <c r="N4" t="n">
         <v>471.6341805242525</v>
@@ -4512,28 +4512,28 @@
         <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846282</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846282</v>
+        <v>543.6710658596655</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
       <c r="Y4" t="n">
-        <v>746.7254979846282</v>
+        <v>354.2512808431806</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1325.321962341967</v>
+        <v>1201.180924324882</v>
       </c>
       <c r="C5" t="n">
-        <v>956.3594454015558</v>
+        <v>1201.180924324882</v>
       </c>
       <c r="D5" t="n">
-        <v>956.3594454015558</v>
+        <v>842.9152257181318</v>
       </c>
       <c r="E5" t="n">
-        <v>956.3594454015558</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="F5" t="n">
-        <v>545.3735406119483</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4597,22 +4597,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1474.442682189358</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1474.442682189358</v>
+        <v>1587.780764389004</v>
       </c>
       <c r="V5" t="n">
-        <v>1474.442682189358</v>
+        <v>1587.780764389004</v>
       </c>
       <c r="W5" t="n">
-        <v>1474.442682189358</v>
+        <v>1587.780764389004</v>
       </c>
       <c r="X5" t="n">
-        <v>1474.442682189358</v>
+        <v>1587.780764389004</v>
       </c>
       <c r="Y5" t="n">
-        <v>1474.442682189358</v>
+        <v>1587.780764389004</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690.0862111358201</v>
+        <v>705.2452429302359</v>
       </c>
       <c r="C6" t="n">
-        <v>515.6331818546931</v>
+        <v>530.7922136491089</v>
       </c>
       <c r="D6" t="n">
-        <v>515.6331818546931</v>
+        <v>381.8578039878577</v>
       </c>
       <c r="E6" t="n">
-        <v>356.3957268492376</v>
+        <v>222.6203489824022</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>76.08579100928714</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4649,22 +4649,22 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4678301599682</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>415.7050622867858</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>679.6445937822731</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>964.9784642156058</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1203.783415967064</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4676,22 +4676,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115832</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="U6" t="n">
-        <v>1347.691013115832</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="V6" t="n">
-        <v>1112.53890488409</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="W6" t="n">
-        <v>858.3015481558882</v>
+        <v>1289.072378920791</v>
       </c>
       <c r="X6" t="n">
-        <v>858.3015481558882</v>
+        <v>1081.220878715258</v>
       </c>
       <c r="Y6" t="n">
-        <v>858.3015481558882</v>
+        <v>873.460579950304</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.4492996119732</v>
+        <v>346.5889628842426</v>
       </c>
       <c r="C7" t="n">
-        <v>185.4492996119732</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="D7" t="n">
-        <v>185.4492996119732</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4492996119732</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4755,22 +4755,22 @@
         <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1068.720505876298</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>779.5838788684002</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>779.5838788684002</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="W7" t="n">
-        <v>490.1667088314396</v>
+        <v>749.0300068580125</v>
       </c>
       <c r="X7" t="n">
-        <v>490.1667088314396</v>
+        <v>749.0300068580125</v>
       </c>
       <c r="Y7" t="n">
-        <v>269.3741296879095</v>
+        <v>528.2374277144824</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.205955573377</v>
+        <v>179.07746990462</v>
       </c>
       <c r="C8" t="n">
-        <v>901.2434386329655</v>
+        <v>179.07746990462</v>
       </c>
       <c r="D8" t="n">
-        <v>901.2434386329655</v>
+        <v>179.07746990462</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6693023488756</v>
+        <v>179.07746990462</v>
       </c>
       <c r="F8" t="n">
-        <v>537.7238015996721</v>
+        <v>56.30533251091184</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7336115759746</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759746</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872699</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158979</v>
+        <v>376.2952505159007</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985246</v>
+        <v>685.3852714985294</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556939</v>
+        <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415483</v>
+        <v>1447.259827415492</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975102</v>
+        <v>1798.680568975115</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063108</v>
+        <v>2064.109040631093</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208118</v>
+        <v>2215.262022208132</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380906</v>
+        <v>2217.77732638092</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650136</v>
+        <v>2086.573660650151</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.578506759151</v>
+        <v>1876.578506759166</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.974610843491</v>
+        <v>1622.974610843506</v>
       </c>
       <c r="V8" t="n">
-        <v>1622.974610843491</v>
+        <v>1291.911723499936</v>
       </c>
       <c r="W8" t="n">
-        <v>1270.205955573377</v>
+        <v>939.1430682298217</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.205955573377</v>
+        <v>565.6773099687418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.205955573377</v>
+        <v>565.6773099687418</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7643077205289</v>
+        <v>673.5149984485672</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3112784394019</v>
+        <v>499.0619691674402</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3768687781507</v>
+        <v>350.127559506189</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1394137726951</v>
+        <v>190.8901045007334</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676151</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424022</v>
+        <v>217.3941849412459</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643069</v>
+        <v>462.6427349937662</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939825</v>
+        <v>724.8457108234431</v>
       </c>
       <c r="M9" t="n">
-        <v>840.6532621440872</v>
+        <v>1050.181084473549</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.00793998484</v>
+        <v>1398.535762314304</v>
       </c>
       <c r="O9" t="n">
-        <v>1587.690814634397</v>
+        <v>1694.992440729456</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855262</v>
+        <v>1913.591994996785</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380906</v>
+        <v>2217.77732638092</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380906</v>
+        <v>2217.77732638092</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472972</v>
+        <v>2079.218696472987</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064429</v>
+        <v>1884.596484064443</v>
       </c>
       <c r="U9" t="n">
-        <v>1857.980908671028</v>
+        <v>1746.731599399066</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.828800439285</v>
+        <v>1511.579491167324</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.591443711084</v>
+        <v>1257.342134439122</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.739943505551</v>
+        <v>1049.490634233589</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.979644740597</v>
+        <v>841.7303354686353</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>641.2284838913542</v>
+        <v>339.1585876079218</v>
       </c>
       <c r="C10" t="n">
-        <v>472.2923009634474</v>
+        <v>339.1585876079218</v>
       </c>
       <c r="D10" t="n">
-        <v>322.1756615511116</v>
+        <v>339.1585876079218</v>
       </c>
       <c r="E10" t="n">
-        <v>322.1756615511116</v>
+        <v>191.2454940255288</v>
       </c>
       <c r="F10" t="n">
-        <v>322.1756615511116</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761812</v>
+        <v>44.35554652761841</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691984</v>
+        <v>60.95254262692052</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274022</v>
+        <v>218.0633423274035</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918422</v>
+        <v>474.6375091918444</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921691</v>
+        <v>755.5481168921722</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629316</v>
+        <v>1035.21391462932</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546127</v>
+        <v>1277.514248546132</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659236</v>
+        <v>1461.323360659242</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620018</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="S10" t="n">
-        <v>1396.807701620018</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="T10" t="n">
-        <v>1396.807701620018</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="U10" t="n">
-        <v>1112.294118758555</v>
+        <v>1505.14818215597</v>
       </c>
       <c r="V10" t="n">
-        <v>1112.294118758555</v>
+        <v>1250.463693950083</v>
       </c>
       <c r="W10" t="n">
-        <v>822.876948721594</v>
+        <v>961.0465239131222</v>
       </c>
       <c r="X10" t="n">
-        <v>822.876948721594</v>
+        <v>733.0569730151049</v>
       </c>
       <c r="Y10" t="n">
-        <v>822.876948721594</v>
+        <v>512.2643938715747</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2326.078227070185</v>
       </c>
       <c r="T13" t="n">
-        <v>2124.944376414609</v>
+        <v>2106.476762093126</v>
       </c>
       <c r="U13" t="n">
-        <v>1835.869149758807</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V13" t="n">
-        <v>1581.18466155292</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,16 +5366,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5451,37 +5451,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2394.544826620912</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S16" t="n">
-        <v>2211.689992275817</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T16" t="n">
-        <v>2211.689992275817</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>1922.614765620015</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.930277414128</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.513107377167</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.52355647915</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,19 +5603,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.978273055629</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6788,13 +6788,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
   </sheetData>
@@ -8142,13 +8142,13 @@
         <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
-        <v>74.0341892652898</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>75.41988959484712</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
-        <v>25.90541300402725</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>247.5454807529823</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>85.553229638841</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>103.2587840751574</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688338</v>
+        <v>30.32522655688297</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>61.35027805666968</v>
       </c>
       <c r="T13" t="n">
-        <v>79.63321623493852</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.48117232036704</v>
+        <v>35.11263957635506</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="V25" t="n">
-        <v>180.5336875992872</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>118.3918499711702</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>114.7699989900979</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047772</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
@@ -26343,19 +26343,19 @@
         <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296882</v>
+        <v>138712.7919296919</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745771</v>
+        <v>589678.7921745734</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
         <v>60247.15959153561</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484239</v>
+        <v>33617.87336484331</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016728</v>
+        <v>154073.851016727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296195</v>
+        <v>170385.5244296184</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26456,7 +26456,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26475,7 +26475,7 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.0402996929</v>
+        <v>86168.04029969321</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351782.6406906673</v>
+        <v>-351782.6406906676</v>
       </c>
       <c r="C6" t="n">
-        <v>30740.13553241614</v>
+        <v>30740.13553241623</v>
       </c>
       <c r="D6" t="n">
-        <v>179462.8822459975</v>
+        <v>179462.8822459946</v>
       </c>
       <c r="E6" t="n">
-        <v>-140015.4542923347</v>
+        <v>-140362.8335466882</v>
       </c>
       <c r="F6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278856</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822425</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822421</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="J6" t="n">
-        <v>400598.3931536978</v>
+        <v>400251.0138993408</v>
       </c>
       <c r="K6" t="n">
-        <v>389416.1782907066</v>
+        <v>389068.7990363496</v>
       </c>
       <c r="L6" t="n">
-        <v>416045.4645173998</v>
+        <v>415698.0852630418</v>
       </c>
       <c r="M6" t="n">
-        <v>295589.4868655142</v>
+        <v>295242.1076111585</v>
       </c>
       <c r="N6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="O6" t="n">
-        <v>449663.3378822421</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="P6" t="n">
-        <v>449663.337882242</v>
+        <v>449315.9586278855</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790433</v>
+        <v>863.7717861790463</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952265</v>
+        <v>554.4443315952301</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814333</v>
+        <v>113.7908296814363</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626305</v>
+        <v>504.2037141626272</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044219</v>
+        <v>618.263956504418</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044219</v>
+        <v>618.263956504418</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132446</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044219</v>
+        <v>618.263956504418</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>336.9369708585688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>349.7903508530056</v>
       </c>
       <c r="G2" t="n">
         <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>135.288944980103</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>98.6259263312745</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.77313034533469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>138.5787376024736</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632377998</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.1043290145639</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>153.4114621506953</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>91.87095381951049</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.79733643027524</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.74639840676032</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>2.936714818091843</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27827,13 +27827,13 @@
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>28.92197515101276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>285.3316297219403</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787248</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719213</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155173</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>199.4697305849732</v>
+        <v>89.33291440571676</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.457231980920966</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>4.565621164346055</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.983060707359229e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.212447256258965e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674543</v>
+        <v>3.472449391674556</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248693</v>
+        <v>35.56222233248705</v>
       </c>
       <c r="I8" t="n">
-        <v>133.871605172533</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566375</v>
+        <v>294.7198015566386</v>
       </c>
       <c r="K8" t="n">
-        <v>441.708584306221</v>
+        <v>441.7085843062226</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766809</v>
+        <v>547.9785573766828</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458731</v>
+        <v>609.7317292458753</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799684</v>
+        <v>619.5978260799707</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415047</v>
+        <v>585.0686574415067</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845393</v>
+        <v>499.342563084541</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451946</v>
+        <v>374.9854692451959</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997762</v>
+        <v>218.126249099777</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278373</v>
+        <v>79.12844051278401</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205532</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339634</v>
+        <v>0.2777959513339644</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328508</v>
+        <v>1.857924219328515</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930428</v>
+        <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986312</v>
+        <v>63.96800491986335</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743658</v>
+        <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693759</v>
+        <v>300.0140174693769</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169202</v>
+        <v>403.4058705169217</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675785</v>
+        <v>470.7556234675802</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436895</v>
+        <v>483.2151240436912</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627788</v>
+        <v>442.0474347627804</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873886</v>
+        <v>354.7820379873899</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839197</v>
+        <v>237.1623968391978</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070806</v>
+        <v>115.354277407081</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498345</v>
+        <v>34.51012749498357</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363589</v>
+        <v>7.488738410363616</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347703</v>
+        <v>0.1222318565347708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765488</v>
+        <v>1.557621253765493</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8486689652968</v>
+        <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869305</v>
+        <v>46.84191915869321</v>
       </c>
       <c r="J10" t="n">
-        <v>110.12382264122</v>
+        <v>110.1238226412204</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011175</v>
+        <v>180.9672693011182</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552799</v>
+        <v>231.5757998552807</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243482</v>
+        <v>244.1642116243491</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057679</v>
+        <v>238.3585324057688</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231437</v>
+        <v>220.1626841231445</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463276</v>
+        <v>188.3872105463283</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130355</v>
+        <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658272</v>
+        <v>70.03631564658298</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516762</v>
+        <v>27.14509039516772</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543446</v>
+        <v>6.65529081154347</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629942</v>
+        <v>0.08496115929629973</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>595.3857163736986</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O18" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175063</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>99.08507489005544</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -35017,25 +35017,25 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
-        <v>237.6133657846643</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>421.6151382819818</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299513</v>
+        <v>113.6738970299523</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612405</v>
+        <v>221.618733261242</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066937</v>
+        <v>312.2121424066956</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186004</v>
+        <v>379.3854960186026</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833775</v>
+        <v>390.1847624833798</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198179</v>
+        <v>354.97044601982</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292697</v>
+        <v>268.1095673292715</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707451</v>
+        <v>152.6797793707464</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644079</v>
+        <v>2.540711285644875</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.6954681076991</v>
+        <v>174.7865034481086</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950169</v>
+        <v>247.7258081338589</v>
       </c>
       <c r="L9" t="n">
-        <v>264.851490737046</v>
+        <v>264.8514907370475</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455602</v>
+        <v>328.6215895455618</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603562</v>
+        <v>351.8734119603579</v>
       </c>
       <c r="O9" t="n">
-        <v>402.7099743934918</v>
+        <v>299.451190318336</v>
       </c>
       <c r="P9" t="n">
-        <v>539.2703992129955</v>
+        <v>220.8076305730596</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317544</v>
+        <v>307.2579104890254</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7646425245472</v>
+        <v>16.76464252454758</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752347</v>
+        <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
-        <v>259.165825115596</v>
+        <v>259.1658251155969</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861888</v>
+        <v>283.7480885861896</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849965</v>
+        <v>282.4907047849974</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371834</v>
+        <v>244.7478120371842</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112211</v>
+        <v>185.6657698112218</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134114</v>
+        <v>44.26749646134159</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>453.2516824516803</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O15" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060465</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O18" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1918369.176061773</v>
+        <v>1920129.706364558</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>133.8333590606439</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.08569488870582</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.21317290608058</v>
       </c>
       <c r="C3" t="n">
-        <v>37.41955400821273</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>132.7269010183039</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>68.20151819302265</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>97.69299085153396</v>
+        <v>171.8293870655032</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>41.9330141472613</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>183.652323451407</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>164.310106280536</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>160.3858838114398</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>348.8400170394209</v>
       </c>
       <c r="F8" t="n">
-        <v>121.5444160197711</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.83028812346049</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734613</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.2918076971921</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>10.73871884652589</v>
       </c>
       <c r="U9" t="n">
-        <v>136.4862358187233</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3747482010163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>214.3411155626599</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725671</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6760079449749</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892391</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365903</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.26260713376664</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>248.2668796492884</v>
       </c>
       <c r="V19" t="n">
-        <v>205.6779548755971</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>47.16611136584745</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>116.4636264596537</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272845</v>
       </c>
       <c r="U28" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>234.5063950755425</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.0770731562677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.822854220781</v>
+        <v>359.7826784871777</v>
       </c>
       <c r="C2" t="n">
-        <v>388.822854220781</v>
+        <v>170.3628934706928</v>
       </c>
       <c r="D2" t="n">
-        <v>388.822854220781</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>388.822854220781</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="W2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="X2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.242639237266</v>
+        <v>549.2024635036626</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.6599372348737</v>
+        <v>340.5869642405399</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
@@ -4424,37 +4424,37 @@
         <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843287</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843287</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843287</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678437</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="W3" t="n">
-        <v>344.0797222513587</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="X3" t="n">
-        <v>344.0797222513587</v>
+        <v>382.2164318224395</v>
       </c>
       <c r="Y3" t="n">
-        <v>154.6599372348737</v>
+        <v>382.2164318224395</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="C4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="D4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="E4" t="n">
-        <v>354.2512808431806</v>
+        <v>464.6483946944666</v>
       </c>
       <c r="F4" t="n">
-        <v>207.3613333452702</v>
+        <v>317.7584471965562</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>149.0696237594711</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830977</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242525</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608027</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="S4" t="n">
-        <v>543.6710658596655</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="T4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="U4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="V4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="W4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="X4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.2512808431806</v>
+        <v>612.5614882768597</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.180924324882</v>
+        <v>1512.895515688025</v>
       </c>
       <c r="C5" t="n">
-        <v>1201.180924324882</v>
+        <v>1512.895515688025</v>
       </c>
       <c r="D5" t="n">
-        <v>842.9152257181318</v>
+        <v>1154.629817081274</v>
       </c>
       <c r="E5" t="n">
-        <v>457.1269731198875</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="F5" t="n">
-        <v>46.14106833027991</v>
+        <v>357.8556596934226</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4600,19 +4600,19 @@
         <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.780764389004</v>
+        <v>1512.895515688025</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.780764389004</v>
+        <v>1512.895515688025</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.780764389004</v>
+        <v>1512.895515688025</v>
       </c>
       <c r="X5" t="n">
-        <v>1587.780764389004</v>
+        <v>1512.895515688025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.780764389004</v>
+        <v>1512.895515688025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705.2452429302359</v>
+        <v>662.8886629835073</v>
       </c>
       <c r="C6" t="n">
-        <v>530.7922136491089</v>
+        <v>488.4356337023803</v>
       </c>
       <c r="D6" t="n">
-        <v>381.8578039878577</v>
+        <v>339.501224041129</v>
       </c>
       <c r="E6" t="n">
-        <v>222.6203489824022</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F6" t="n">
-        <v>76.08579100928714</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
         <v>33.72921106255854</v>
@@ -4649,19 +4649,19 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1178.137057093077</v>
       </c>
       <c r="P6" t="n">
         <v>1413.205888007736</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1543.309735648992</v>
+        <v>1500.953155702264</v>
       </c>
       <c r="W6" t="n">
-        <v>1289.072378920791</v>
+        <v>1246.715798974062</v>
       </c>
       <c r="X6" t="n">
-        <v>1081.220878715258</v>
+        <v>1038.864298768529</v>
       </c>
       <c r="Y6" t="n">
-        <v>873.460579950304</v>
+        <v>831.1040000035753</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.5889628842426</v>
+        <v>500.6951269851943</v>
       </c>
       <c r="C7" t="n">
-        <v>180.6191585604689</v>
+        <v>331.7589440572874</v>
       </c>
       <c r="D7" t="n">
-        <v>180.6191585604689</v>
+        <v>181.6423046449517</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1131.125721856981</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>1131.125721856981</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>1131.125721856981</v>
       </c>
       <c r="V7" t="n">
-        <v>1038.447176894973</v>
+        <v>1131.125721856981</v>
       </c>
       <c r="W7" t="n">
-        <v>749.0300068580125</v>
+        <v>1131.125721856981</v>
       </c>
       <c r="X7" t="n">
-        <v>749.0300068580125</v>
+        <v>903.1361709589642</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.2374277144824</v>
+        <v>682.343591815434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.07746990462</v>
+        <v>773.8801854420385</v>
       </c>
       <c r="C8" t="n">
-        <v>179.07746990462</v>
+        <v>773.8801854420385</v>
       </c>
       <c r="D8" t="n">
-        <v>179.07746990462</v>
+        <v>415.614486835288</v>
       </c>
       <c r="E8" t="n">
-        <v>179.07746990462</v>
+        <v>63.2508332601154</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091184</v>
+        <v>56.30533251091192</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872711</v>
+        <v>156.8927045872717</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159007</v>
+        <v>376.2952505159018</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985294</v>
+        <v>685.385271498531</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556946</v>
+        <v>1060.976912556948</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415492</v>
+        <v>1447.259827415495</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975115</v>
+        <v>1798.680568975117</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631093</v>
+        <v>2064.109040631097</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208132</v>
+        <v>2215.262022208136</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650151</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.578506759166</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.974610843506</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="V8" t="n">
-        <v>1291.911723499936</v>
+        <v>1886.714439037354</v>
       </c>
       <c r="W8" t="n">
-        <v>939.1430682298217</v>
+        <v>1533.94578376724</v>
       </c>
       <c r="X8" t="n">
-        <v>565.6773099687418</v>
+        <v>1160.48002550616</v>
       </c>
       <c r="Y8" t="n">
-        <v>565.6773099687418</v>
+        <v>1160.48002550616</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>673.5149984485672</v>
+        <v>905.6133829345009</v>
       </c>
       <c r="C9" t="n">
-        <v>499.0619691674402</v>
+        <v>731.1603536533739</v>
       </c>
       <c r="D9" t="n">
-        <v>350.127559506189</v>
+        <v>582.2259439921227</v>
       </c>
       <c r="E9" t="n">
-        <v>190.8901045007334</v>
+        <v>422.9884889866671</v>
       </c>
       <c r="F9" t="n">
-        <v>44.35554652761841</v>
+        <v>276.4539310135521</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761841</v>
+        <v>139.5997967268024</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412459</v>
+        <v>217.3941849412462</v>
       </c>
       <c r="K9" t="n">
-        <v>462.6427349937662</v>
+        <v>462.6427349937676</v>
       </c>
       <c r="L9" t="n">
-        <v>724.8457108234431</v>
+        <v>724.8457108234451</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473549</v>
+        <v>1050.181084473552</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.535762314304</v>
+        <v>1398.535762314307</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729456</v>
+        <v>1694.99244072946</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996785</v>
+        <v>1913.591994996789</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.77732638092</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472987</v>
+        <v>2217.777326380925</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064443</v>
+        <v>2206.930135626858</v>
       </c>
       <c r="U9" t="n">
-        <v>1746.731599399066</v>
+        <v>1978.829983885</v>
       </c>
       <c r="V9" t="n">
-        <v>1511.579491167324</v>
+        <v>1743.677875653257</v>
       </c>
       <c r="W9" t="n">
-        <v>1257.342134439122</v>
+        <v>1489.440518925056</v>
       </c>
       <c r="X9" t="n">
-        <v>1049.490634233589</v>
+        <v>1281.589018719523</v>
       </c>
       <c r="Y9" t="n">
-        <v>841.7303354686353</v>
+        <v>1073.828719954569</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.1585876079218</v>
+        <v>658.2114099481646</v>
       </c>
       <c r="C10" t="n">
-        <v>339.1585876079218</v>
+        <v>489.2752270202577</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079218</v>
+        <v>339.158587607922</v>
       </c>
       <c r="E10" t="n">
         <v>191.2454940255288</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761841</v>
+        <v>44.3555465276185</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692052</v>
+        <v>60.95254262692076</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274035</v>
+        <v>218.063342327404</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918444</v>
+        <v>474.6375091918451</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921722</v>
+        <v>755.5481168921732</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.21391462932</v>
+        <v>1035.213914629321</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546132</v>
+        <v>1277.514248546134</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659242</v>
+        <v>1461.323360659243</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.14818215597</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.463693950083</v>
+        <v>1505.148182155972</v>
       </c>
       <c r="W10" t="n">
-        <v>961.0465239131222</v>
+        <v>1288.642004819952</v>
       </c>
       <c r="X10" t="n">
-        <v>733.0569730151049</v>
+        <v>1060.652453921934</v>
       </c>
       <c r="Y10" t="n">
-        <v>512.2643938715747</v>
+        <v>839.8598747784043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.8692823226941</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2326.078227070185</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2106.476762093126</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1817.401535437329</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1562.717047231442</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.299877194481</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1045.310326296464</v>
+        <v>983.3403484614398</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.5177471529338</v>
+        <v>762.5477693179097</v>
       </c>
     </row>
     <row r="14">
@@ -5257,61 +5257,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5940,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,13 +6077,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>450.3671302240731</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>283.171030938953</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>141.4591997811511</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.711884091971</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703148</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424079</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>526.5658826424079</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>378.6527890600148</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6606,13 +6606,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.2066920307424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8148,7 +8148,7 @@
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484712</v>
+        <v>75.41988959484686</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>63.37360602116041</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>85.553229638841</v>
+        <v>85.55322963884171</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688297</v>
+        <v>30.32522655688281</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>123.7828069546806</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>61.35027805666968</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.11263957635506</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>37.91759473995572</v>
       </c>
       <c r="V19" t="n">
-        <v>46.45968844823091</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>34.09972495271808</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.95742156327759</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>43.26526345294991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>52.01660326104846</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>101.682581879676</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>886290.4889038962</v>
+        <v>886290.4889038963</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047772</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296919</v>
+        <v>138712.7919296933</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745734</v>
+        <v>589678.7921745726</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153561</v>
+        <v>60247.1595915357</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484331</v>
+        <v>33617.8733648436</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016727</v>
+        <v>154073.8510167268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296184</v>
+        <v>170385.5244296181</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.752076855</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.7520768551</v>
       </c>
-      <c r="H4" t="n">
-        <v>14216.75207685512</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685511</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685508</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26456,7 +26456,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969321</v>
+        <v>86168.0402996933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351782.6406906676</v>
+        <v>-351782.640690667</v>
       </c>
       <c r="C6" t="n">
-        <v>30740.13553241623</v>
+        <v>30740.13553241594</v>
       </c>
       <c r="D6" t="n">
-        <v>179462.8822459946</v>
+        <v>179462.8822459935</v>
       </c>
       <c r="E6" t="n">
-        <v>-140362.8335466882</v>
+        <v>-140050.1922177661</v>
       </c>
       <c r="F6" t="n">
-        <v>449315.9586278856</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="G6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568064</v>
       </c>
       <c r="H6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568069</v>
       </c>
       <c r="I6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="J6" t="n">
-        <v>400251.0138993408</v>
+        <v>400563.6552282619</v>
       </c>
       <c r="K6" t="n">
-        <v>389068.7990363496</v>
+        <v>389381.4403652707</v>
       </c>
       <c r="L6" t="n">
-        <v>415698.0852630418</v>
+        <v>416010.726591963</v>
       </c>
       <c r="M6" t="n">
-        <v>295242.1076111585</v>
+        <v>295554.7489400797</v>
       </c>
       <c r="N6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="O6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="P6" t="n">
-        <v>449315.9586278855</v>
+        <v>449628.5999568064</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790463</v>
+        <v>863.7717861790475</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952301</v>
+        <v>554.4443315952312</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>-2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814363</v>
+        <v>113.7908296814375</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626272</v>
+        <v>504.2037141626265</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132494</v>
       </c>
       <c r="E4" t="n">
-        <v>618.263956504418</v>
+        <v>618.2639565044174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.089551115662</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132494</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504418</v>
+        <v>618.2639565044174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132483</v>
+        <v>132.8291933132494</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504418</v>
+        <v>618.2639565044174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>220.8496825600391</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7903508530056</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>125.3200107437868</v>
       </c>
       <c r="C3" t="n">
-        <v>135.288944980103</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310515</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459948</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>20.70676981351568</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>138.5787376024736</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632377998</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27672,7 +27672,7 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>153.4114621506953</v>
+        <v>79.27506593672607</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.79733643027524</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
@@ -27754,7 +27754,7 @@
         <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>49.1482636980183</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.936714818091843</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27824,7 +27824,7 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>40.06164055986167</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
@@ -27833,13 +27833,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>33.09035303284088</v>
       </c>
       <c r="F8" t="n">
-        <v>285.3316297219403</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787248</v>
+        <v>76.60428439787231</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734612</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155173</v>
+        <v>25.42862793155165</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.9372714379321</v>
       </c>
       <c r="U9" t="n">
-        <v>89.33291440571676</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.457231980920966</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>107.2570757305864</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418045</v>
@@ -28070,10 +28070,10 @@
         <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>72.18188277393114</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28304,13 +28304,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.983060707359229e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.413968698225897e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.212447256258965e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674556</v>
+        <v>3.47244939167456</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248705</v>
+        <v>35.5622223324871</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>133.8716051725336</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566386</v>
+        <v>294.719801556639</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062226</v>
+        <v>441.7085843062231</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766828</v>
+        <v>547.9785573766836</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458753</v>
+        <v>609.7317292458761</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799707</v>
+        <v>619.5978260799715</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415067</v>
+        <v>585.0686574415075</v>
       </c>
       <c r="P8" t="n">
-        <v>499.342563084541</v>
+        <v>499.3425630845417</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451959</v>
+        <v>374.9854692451964</v>
       </c>
       <c r="R8" t="n">
-        <v>218.126249099777</v>
+        <v>218.1262490997773</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278401</v>
+        <v>79.12844051278411</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205537</v>
+        <v>15.20064721205539</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339644</v>
+        <v>0.2777959513339647</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328515</v>
+        <v>1.857924219328517</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930434</v>
+        <v>17.94363653930437</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986335</v>
+        <v>63.96800491986343</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743664</v>
+        <v>175.5330947743666</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693769</v>
+        <v>300.0140174693773</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169217</v>
+        <v>403.4058705169222</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675802</v>
+        <v>470.7556234675808</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436912</v>
+        <v>483.2151240436919</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627804</v>
+        <v>442.047434762781</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873899</v>
+        <v>354.7820379873903</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391978</v>
+        <v>237.1623968391981</v>
       </c>
       <c r="R9" t="n">
-        <v>115.354277407081</v>
+        <v>115.3542774070811</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498357</v>
+        <v>34.51012749498362</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363616</v>
+        <v>7.488738410363626</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347708</v>
+        <v>0.1222318565347709</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765493</v>
+        <v>1.557621253765495</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529685</v>
+        <v>13.84866896529687</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869321</v>
+        <v>46.84191915869327</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412204</v>
+        <v>110.1238226412205</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011182</v>
+        <v>180.9672693011184</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552807</v>
+        <v>231.575799855281</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243491</v>
+        <v>244.1642116243494</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057688</v>
+        <v>238.3585324057691</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231445</v>
+        <v>220.1626841231448</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463283</v>
+        <v>188.3872105463286</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.429539713036</v>
+        <v>130.4295397130361</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658298</v>
+        <v>70.03631564658306</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516772</v>
+        <v>27.14509039516776</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65529081154347</v>
+        <v>6.655290811543478</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629973</v>
+        <v>0.08496115929629984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3857163736986</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005544</v>
+        <v>99.08507489005515</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -35017,7 +35017,7 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>186.0231941729573</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35032,7 +35032,7 @@
         <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>237.4432635501599</v>
       </c>
       <c r="Q6" t="n">
         <v>276.0148132527186</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299523</v>
+        <v>113.6738970299527</v>
       </c>
       <c r="K8" t="n">
-        <v>221.618733261242</v>
+        <v>221.6187332612426</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066956</v>
+        <v>312.2121424066964</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186026</v>
+        <v>379.3854960186034</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833798</v>
+        <v>390.1847624833806</v>
       </c>
       <c r="O8" t="n">
-        <v>354.97044601982</v>
+        <v>354.9704460198208</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292715</v>
+        <v>268.1095673292722</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707464</v>
+        <v>152.6797793707469</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644875</v>
+        <v>2.540711285645159</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481086</v>
+        <v>174.7865034481088</v>
       </c>
       <c r="K9" t="n">
-        <v>247.7258081338589</v>
+        <v>247.72580813386</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370475</v>
+        <v>264.851490737048</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455618</v>
+        <v>328.6215895455625</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603579</v>
+        <v>351.8734119603586</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318336</v>
+        <v>299.4511903183366</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730596</v>
+        <v>220.8076305730601</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890254</v>
+        <v>307.2579104890257</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454758</v>
+        <v>16.76464252454774</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752353</v>
+        <v>158.6977774752356</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155969</v>
+        <v>259.1658251155972</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861896</v>
+        <v>283.74808858619</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849974</v>
+        <v>282.4907047849977</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371842</v>
+        <v>244.7478120371845</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112218</v>
+        <v>185.665769811222</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134159</v>
+        <v>44.26749646134176</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>453.2516824516803</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060465</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
